--- a/indicators/output/matching_imbalances.xlsx
+++ b/indicators/output/matching_imbalances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,20 +453,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t># of partnerships made in alignment with HANWASH core values</t>
+          <t>Pourcentage d'événements WASH organisés dans les communes avec la participation de Rotariens haïtiens.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>% of commune WASH events with Rotarian participation</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>% of communes which have held an annual WASH service provider review with key stakeholders in the last year</t>
+          <t>Proportion (%) de participants aux réunions virtuelles sur les projets WASH qui sont des Rotariens haïtiens.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>% of customers satisfied with the quality, affordability and reliability of the WASH services provided</t>
+          <t>Nombre de visites sur le terrain effectuées chaque trimestre par les Rotariens dans les communautés concernées.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,20 +496,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>% of healthcare facilities with at least basic drinking water, sanitation, and hygiene services</t>
+          <t>Pourcentage d'interventions approuvées mises en œuvre conformément aux plans d'action des communes.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>% of approved interventions implemented in alignment with Commune Action Plans</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>% of intervention communities that achieved ODF status using the CLTS approach</t>
+          <t>Nombre de communes disposant de plans d'action qui incluent explicitement chaque aspect W, S, H, WRM (eau, assainissement, hygiène, gestion des ressources en eau).</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -518,7 +526,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>% of intervention water points and water systems which are functional, potable, and have at least a balanced budget after 2 years</t>
+          <t>Nombre d'événements de planification et de coordination WASH avec la DINEPA et les responsables municipaux</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -531,58 +539,46 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>% of municipal WASH events with Haitian Rotarian participation</t>
+          <t>Pourcentage de prestataires de services relevant de l'initiative HANWASH contrôlés conformément aux directives de la DINEPA/OREPA acceptées par le bureau du maire</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>% of commune WASH events with Rotarian participation</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>% of municipal WASH interventions implemented in alignment with the Commune Action Plan</t>
+          <t>Pourcentage de prestataires de services d'intervention qui sont entièrement responsables conformément aux exigences de la DINEPA/OREPA et du maire</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>% of approved interventions implemented in alignment with Commune Action Plans</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>% of population in intervention communes with access to basic drinking water service</t>
+          <t>Pourcentage d'utilisateurs satisfaits de la qualité, du caractère abordable et de la fiabilité des services WASH fournis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>% of population in intervention communes with at least basic drinking water service</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>% of population in intervention communes with access to safely managed drinking water service</t>
+          <t>Nombre moyen de jours nécessaires pour résoudre les pannes des infrastructures hydrauliques</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -595,41 +591,33 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>% of population in intervention communes with at least basic hygiene service</t>
+          <t>Nombre moyen de jours de service d'eau potable fournis au cours du mois par les prestataires de services</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>% of population in intervention communes with at least basic hygiene service</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>% of population in intervention communes with at least basic sanitation service</t>
+          <t>Nombre de visites d'inspection sur place effectuées chaque année par l'OREPA dans les communes d'intervention</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>% of population in intervention communes with at least basic sanitation service</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>% of population in intervention communities paying for water service</t>
+          <t>Taux de recouvrement des redevances d'eau</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,37 +630,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>% of schools with at least basic drinking water, sanitation, and hygiene services</t>
+          <t>Pourcentage de la population des communes d’intervention ayant accès au moins à un service élémentaire d’alimentation en eau potable</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>% of population in intervention communes with at least basic drinking water service</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>% of service providers monitored according to DINEPA/OREPA guidelines as accepted by the Mayor's Office</t>
+          <t>Pourcentage de la population des communes d’intervention ayant accès à un service d’alimentation en eau potable (SAEP) géré en toute sécurité</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>% of service providers under HANWASH initiative monitored according to national guidelines</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>% of the intervention communes with functional WASH municipal committee</t>
+          <t>Pourcentage de ménages dans les communes d’intervention disposant d’une source d’eau améliorée disponible en cas de besoin</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -685,7 +673,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>% of water point committees (CPEs) and Professional Operators created which are functional</t>
+          <t>Pourcentage de ménages qui paient régulièrement l'eau</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -698,19 +686,404 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Pourcentage de la population des communes d’intervention ayant accès au moins à un service élémentaire d’assainissement</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>% of population in intervention communes with at least basic sanitation service</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Pourcentage de la population des communes d’intervention ayant accès à un service d'assainissement géré en toute sécurité</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Pourcentage de la population des communes d’intervention où les excréments sont éliminés en toute sécurité in situ ou transportés et traités hors site</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pourcentage de la population des communes d’intervention ayant accès au moins à un service élémentaire d’hygiène</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>% of population in intervention communes with at least basic hygiene service</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pourcentage d’écoles disposant au moins de services élémentaires d'eau, d'assainissement et d'hygiène</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Pourcentage d’établissements de santé disposant au moins de services élémentaires d'eau, d'assainissement et d'hygiène</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Nombre d'écoles bénéficiant désormais d'un service d'eau potable de base</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Nombre d'établissements de santé bénéficiant désormais de services d'eau potable de base</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Nombre d'écoles bénéficiant désormais de services d'assainissement de base</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Nombre d'établissements de santé bénéficiant désormais de services d'assainissement de base</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nombre d'écoles bénéficiant désormais de services d'hygiène de base</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nombre d'établissements de santé bénéficiant désormais de services d'hygiène de base</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Montant cumulé des fonds engagés conformément aux valeurs fondamentales de HANWASH, sur la base d'un protocole d'accord signé avec HANWASH</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Cumulative amount of money committed in alignment with HANWASH Core Values</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cumulative amount of money committed in alignment with HANWASH Core Values</t>
-        </is>
-      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Pourcentage des fonds engagés qui ont été dépensés (cumulés), sur la base d'un protocole d'accord signé avec HANWASH</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Montant dépensé par des acteurs externes dans les zones couvertes par le projet HANWASH, sur la base d'un protocole d'accord signé avec HANWASH</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Montant dépensé par des acteurs externes en dehors des zones de projet, conformément aux valeurs fondamentales de HANWASH, soutenu par un protocole d'accord signé avec HANWASH.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Pourcentage de partenaires de mise en œuvre dans les zones du programme HANWASH ayant signé l'accord-cadre de la DINEPA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Nombre de membres du personnel de la DINEPA et des OREPA formés en tant que leaders</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nombre de formations techniques dispensées dans les domaines prioritaires de la DINEPA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Pourcentage des comités de points d'eau (CPE) et des opérateurs professionnels créés qui sont fonctionnels</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Pourcentage de communautés d’intervention qui ont atteint le statut de fin de la défécation à l’air libre (FDAL) en utilisant l’approche ATPC</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Pourcentage de la population des communes d’intervention qui paie pour le service de l’eau</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Pourcentage des écoles avec des points d’eau améliorés</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Pourcentage d’établissements de santé avec des points d’eau améliorés</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Pourcentage des écoles avec des latrines améliorées et séparées par sexe</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Pourcentage d’établissements de santé avec des latrines améliorées et séparées par sexe</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Pourcentage des écoles avec des services d’hygiène de base</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Pourcentage d’établissements de santé avec des services d’hygiène de base</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Pourcentage d’écoles avec un service d’eau potable géré en toute sécurité</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Pourcentage d’établissements de santé avec un service d’eau potable géré en toute sécurité</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/indicators/output/matching_imbalances.xlsx
+++ b/indicators/output/matching_imbalances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>indicator_found</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>indicator_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +471,11 @@
           <t>% of commune WASH events with Rotarian participation</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1100a</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,6 +489,7 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -492,6 +503,7 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -509,6 +521,11 @@
           <t>% of approved interventions implemented in alignment with Commune Action Plans</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1200a</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,6 +539,7 @@
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -535,6 +553,7 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -548,6 +567,7 @@
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -561,6 +581,7 @@
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -574,6 +595,7 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -587,6 +609,7 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -600,6 +623,7 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -613,6 +637,7 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -626,6 +651,7 @@
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -643,6 +669,11 @@
           <t>% of population in intervention communes with at least basic drinking water service</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2100b</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -656,6 +687,7 @@
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -669,6 +701,7 @@
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -682,6 +715,7 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -699,6 +733,11 @@
           <t>% of population in intervention communes with at least basic sanitation service</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2200b</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -712,6 +751,7 @@
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -725,6 +765,7 @@
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -742,6 +783,11 @@
           <t>% of population in intervention communes with at least basic hygiene service</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2300a</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -755,6 +801,7 @@
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -768,6 +815,7 @@
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -781,6 +829,7 @@
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -794,6 +843,7 @@
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -807,6 +857,7 @@
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -820,6 +871,7 @@
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -833,6 +885,7 @@
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -846,6 +899,7 @@
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -863,6 +917,11 @@
           <t>Cumulative amount of money committed in alignment with HANWASH Core Values</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3100a</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -876,6 +935,7 @@
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -889,6 +949,7 @@
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -902,6 +963,7 @@
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -915,6 +977,7 @@
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -928,6 +991,7 @@
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -941,6 +1005,7 @@
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -954,6 +1019,7 @@
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -967,6 +1033,7 @@
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -980,6 +1047,7 @@
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -993,6 +1061,7 @@
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1006,6 +1075,7 @@
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1019,6 +1089,7 @@
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1032,6 +1103,7 @@
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1045,6 +1117,7 @@
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1058,6 +1131,7 @@
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1071,6 +1145,7 @@
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1084,6 +1159,7 @@
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
